--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.39346338487179</v>
+        <v>52.32092986</v>
       </c>
       <c r="C8" t="n">
-        <v>50.909964985</v>
+        <v>50.446266345</v>
       </c>
       <c r="D8" t="n">
-        <v>43.13880349780112</v>
+        <v>43.85201301302044</v>
       </c>
       <c r="E8" t="n">
-        <v>6.568013664556516</v>
+        <v>6.62208524658362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5258619511360096</v>
+        <v>0.544332054194047</v>
       </c>
     </row>
     <row r="9">

--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3195213dee489d73/Desktop/PythonStuff/Pymaceuticals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CAA986F41B678A0E62355476585ABE7EB56FD563" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C40908-3809-4B69-B9A1-08E3D0FB9DF9}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2880" yWindow="3390" windowWidth="23985" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary_stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summary_stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Drug Regimen</t>
+  </si>
+  <si>
+    <t>Mean Tumor Volume</t>
+  </si>
+  <si>
+    <t>Median Tumor Volume</t>
+  </si>
+  <si>
+    <t>Tumor Volume Variance</t>
+  </si>
+  <si>
+    <t>Tumor Volume Std. Dev.</t>
+  </si>
+  <si>
+    <t>Tumor Volume Std. Err.</t>
+  </si>
+  <si>
+    <t>Capomulin</t>
+  </si>
+  <si>
+    <t>Ceftamin</t>
+  </si>
+  <si>
+    <t>Infubinol</t>
+  </si>
+  <si>
+    <t>Ketapril</t>
+  </si>
+  <si>
+    <t>Naftisol</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Propriva</t>
+  </si>
+  <si>
+    <t>Ramicane</t>
+  </si>
+  <si>
+    <t>Stelasyn</t>
+  </si>
+  <si>
+    <t>Zoniferol</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,269 +429,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Drug Regimen</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Tumor Volume</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Median Tumor Volume</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Volume Variance</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Volume Std. Dev.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Volume Std. Err.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Capomulin</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>40.675741141</v>
-      </c>
-      <c r="C2" t="n">
-        <v>41.55780888</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.94776412025484</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.99477368058402</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.329345623400831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Ceftamin</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>52.59117180960674</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>40.675741141000003</v>
+      </c>
+      <c r="C2">
+        <v>41.557808880000003</v>
+      </c>
+      <c r="D2">
+        <v>24.947764120254838</v>
+      </c>
+      <c r="E2">
+        <v>4.9947736805840197</v>
+      </c>
+      <c r="F2">
+        <v>0.32934562340083101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>52.591171809606742</v>
+      </c>
+      <c r="C3">
         <v>51.77615728</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>39.29017727327858</v>
       </c>
-      <c r="E3" t="n">
-        <v>6.268187718414198</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4698205327526109</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Infubinol</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>52.88479510859551</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="E3">
+        <v>6.2681877184141976</v>
+      </c>
+      <c r="F3">
+        <v>0.46982053275261088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>52.884795108595512</v>
+      </c>
+      <c r="C4">
         <v>51.82058438</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>43.12868412883607</v>
       </c>
-      <c r="E4" t="n">
-        <v>6.567243267066941</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>6.5672432670669414</v>
+      </c>
+      <c r="F4">
         <v>0.4922356938011383</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Ketapril</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>55.23563764047872</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53.698742645</v>
-      </c>
-      <c r="D5" t="n">
-        <v>68.55357711244602</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.279708757706761</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6038598237739697</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Naftisol</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>54.33156465833333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>52.50928460999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.17347898736509</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.13470829147334</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5964657512424235</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Placebo</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>54.03358078635359</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52.28893409</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.16808293669703</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.821002681031188</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5813305510593877</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Propriva</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>55.235637640478721</v>
+      </c>
+      <c r="C5">
+        <v>53.698742645000003</v>
+      </c>
+      <c r="D5">
+        <v>68.553577112446021</v>
+      </c>
+      <c r="E5">
+        <v>8.2797087577067607</v>
+      </c>
+      <c r="F5">
+        <v>0.60385982377396974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>54.331564658333328</v>
+      </c>
+      <c r="C6">
+        <v>52.509284609999987</v>
+      </c>
+      <c r="D6">
+        <v>66.173478987365087</v>
+      </c>
+      <c r="E6">
+        <v>8.1347082914733395</v>
+      </c>
+      <c r="F6">
+        <v>0.59646575124242351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>54.033580786353589</v>
+      </c>
+      <c r="C7">
+        <v>52.288934089999998</v>
+      </c>
+      <c r="D7">
+        <v>61.168082936697033</v>
+      </c>
+      <c r="E7">
+        <v>7.8210026810311879</v>
+      </c>
+      <c r="F7">
+        <v>0.58133055105938769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>52.32092986</v>
       </c>
-      <c r="C8" t="n">
-        <v>50.446266345</v>
-      </c>
-      <c r="D8" t="n">
-        <v>43.85201301302044</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.62208524658362</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.544332054194047</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Ramicane</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>40.21674506671052</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="C8">
+        <v>50.446266344999998</v>
+      </c>
+      <c r="D8">
+        <v>43.852013013020439</v>
+      </c>
+      <c r="E8">
+        <v>6.6220852465836204</v>
+      </c>
+      <c r="F8">
+        <v>0.54433205419404695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>40.216745066710523</v>
+      </c>
+      <c r="C9">
         <v>40.67323554</v>
       </c>
-      <c r="D9" t="n">
-        <v>23.48670395209527</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.846308280753018</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3209546065084817</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Stelasyn</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>54.23314911988951</v>
-      </c>
-      <c r="C10" t="n">
-        <v>52.43173664</v>
-      </c>
-      <c r="D10" t="n">
-        <v>59.45056167336597</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.710419033578265</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D9">
+        <v>23.486703952095269</v>
+      </c>
+      <c r="E9">
+        <v>4.8463082807530178</v>
+      </c>
+      <c r="F9">
+        <v>0.32095460650848168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>54.233149119889511</v>
+      </c>
+      <c r="C10">
+        <v>52.431736639999997</v>
+      </c>
+      <c r="D10">
+        <v>59.450561673365968</v>
+      </c>
+      <c r="E10">
+        <v>7.7104190335782654</v>
+      </c>
+      <c r="F10">
         <v>0.5731109332771458</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Zoniferol</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>53.23650655159341</v>
-      </c>
-      <c r="C11" t="n">
-        <v>51.818479325</v>
-      </c>
-      <c r="D11" t="n">
-        <v>48.5333553893861</v>
-      </c>
-      <c r="E11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>53.236506551593408</v>
+      </c>
+      <c r="C11">
+        <v>51.818479324999998</v>
+      </c>
+      <c r="D11">
+        <v>48.533355389386102</v>
+      </c>
+      <c r="E11">
         <v>6.966588504381904</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.5163978968332169</v>
+      <c r="F11">
+        <v>0.51639789683321691</v>
       </c>
     </row>
   </sheetData>
